--- a/facultylist.xlsx
+++ b/facultylist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhip\Desktop\datascrapper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhip\Desktop\Leave_letter_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F0F50D-FBA6-4D79-A1AA-8A19D704FAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49392F0-9D6C-43CF-B8E8-BC6AB84BB25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="89">
   <si>
     <t>Sl No</t>
   </si>
@@ -245,6 +245,48 @@
   </si>
   <si>
     <t>B.Tech</t>
+  </si>
+  <si>
+    <t>Dr. Sruthy S</t>
+  </si>
+  <si>
+    <t>CSE - Cyber Security</t>
+  </si>
+  <si>
+    <t>CSE - Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Head of the Department</t>
+  </si>
+  <si>
+    <t>Dr.Arun P</t>
+  </si>
+  <si>
+    <t>Associate professor &amp; Head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronics and Computer Engineering (ES) </t>
+  </si>
+  <si>
+    <t>Electronics and Communication Engineering (ECE)</t>
+  </si>
+  <si>
+    <t>Dr. Giby Jose</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Electrical and Electronics Engineering (EEE)</t>
+  </si>
+  <si>
+    <t>Associate Professor &amp; Head</t>
+  </si>
+  <si>
+    <t>Dr. Ginu Ann George</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>Dr. Binoy Baby</t>
   </si>
 </sst>
 </file>
@@ -324,20 +366,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y54"/>
+  <dimension ref="A1:Y89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+      <selection activeCell="X59" sqref="X59:Y59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,19 +712,19 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6" t="s">
         <v>73</v>
       </c>
       <c r="Y1" s="2"/>
@@ -2165,15 +2209,15 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
       <c r="I42" s="2" t="s">
         <v>70</v>
       </c>
@@ -2202,15 +2246,15 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
       <c r="I43" s="2" t="s">
         <v>70</v>
       </c>
@@ -2239,15 +2283,15 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
       <c r="I44" s="2" t="s">
         <v>70</v>
       </c>
@@ -2276,15 +2320,15 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
       <c r="I45" s="2" t="s">
         <v>70</v>
       </c>
@@ -2313,15 +2357,15 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
       <c r="I46" s="2" t="s">
         <v>70</v>
       </c>
@@ -2350,15 +2394,15 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
       <c r="I47" s="2" t="s">
         <v>70</v>
       </c>
@@ -2387,15 +2431,15 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
       <c r="I48" s="2" t="s">
         <v>70</v>
       </c>
@@ -2424,15 +2468,15 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
       <c r="I49" s="2" t="s">
         <v>70</v>
       </c>
@@ -2461,15 +2505,15 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
       <c r="I50" s="2" t="s">
         <v>70</v>
       </c>
@@ -2498,15 +2542,15 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
       <c r="I51" s="2" t="s">
         <v>70</v>
       </c>
@@ -2535,15 +2579,15 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
       <c r="I52" s="2" t="s">
         <v>70</v>
       </c>
@@ -2572,15 +2616,15 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
       <c r="I53" s="2" t="s">
         <v>70</v>
       </c>
@@ -2609,15 +2653,15 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
       <c r="I54" s="2" t="s">
         <v>70</v>
       </c>
@@ -2642,50 +2686,1277 @@
       </c>
       <c r="Y54" s="2"/>
     </row>
+    <row r="55" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y55" s="2"/>
+    </row>
+    <row r="56" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y56" s="2"/>
+    </row>
+    <row r="57" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y57" s="2"/>
+    </row>
+    <row r="58" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y58" s="2"/>
+    </row>
+    <row r="59" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y59" s="2"/>
+    </row>
+    <row r="60" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y60" s="2"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+    </row>
+    <row r="78" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+    </row>
+    <row r="80" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+    </row>
+    <row r="81" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+    </row>
+    <row r="82" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+    </row>
+    <row r="83" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+    </row>
+    <row r="84" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+    </row>
+    <row r="85" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+    </row>
+    <row r="86" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
+    </row>
+    <row r="87" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+    </row>
+    <row r="88" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+    </row>
+    <row r="89" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="216">
-    <mergeCell ref="N51:W51"/>
-    <mergeCell ref="N52:W52"/>
-    <mergeCell ref="N53:W53"/>
-    <mergeCell ref="N54:W54"/>
-    <mergeCell ref="N46:W46"/>
-    <mergeCell ref="N47:W47"/>
-    <mergeCell ref="N48:W48"/>
-    <mergeCell ref="N49:W49"/>
-    <mergeCell ref="N50:W50"/>
-    <mergeCell ref="I51:M51"/>
-    <mergeCell ref="I52:M52"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="I54:M54"/>
-    <mergeCell ref="I46:M46"/>
-    <mergeCell ref="I47:M47"/>
-    <mergeCell ref="I48:M48"/>
-    <mergeCell ref="I49:M49"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="N41:W41"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="I43:M43"/>
-    <mergeCell ref="I44:M44"/>
-    <mergeCell ref="I45:M45"/>
-    <mergeCell ref="N42:W42"/>
-    <mergeCell ref="N43:W43"/>
-    <mergeCell ref="N44:W44"/>
-    <mergeCell ref="N45:W45"/>
-    <mergeCell ref="B41:H41"/>
+  <mergeCells count="356">
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="X87:Y87"/>
+    <mergeCell ref="X88:Y88"/>
+    <mergeCell ref="X89:Y89"/>
+    <mergeCell ref="X76:Y76"/>
+    <mergeCell ref="X77:Y77"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="N87:W87"/>
+    <mergeCell ref="N88:W88"/>
+    <mergeCell ref="N89:W89"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="X58:Y58"/>
+    <mergeCell ref="X59:Y59"/>
+    <mergeCell ref="X60:Y60"/>
+    <mergeCell ref="X61:Y61"/>
+    <mergeCell ref="X62:Y62"/>
+    <mergeCell ref="X63:Y63"/>
+    <mergeCell ref="X64:Y64"/>
+    <mergeCell ref="X65:Y65"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="X67:Y67"/>
+    <mergeCell ref="X68:Y68"/>
+    <mergeCell ref="X69:Y69"/>
+    <mergeCell ref="X70:Y70"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="X72:Y72"/>
+    <mergeCell ref="X73:Y73"/>
+    <mergeCell ref="X74:Y74"/>
+    <mergeCell ref="X75:Y75"/>
+    <mergeCell ref="N78:W78"/>
+    <mergeCell ref="N79:W79"/>
+    <mergeCell ref="N80:W80"/>
+    <mergeCell ref="N81:W81"/>
+    <mergeCell ref="N82:W82"/>
+    <mergeCell ref="N83:W83"/>
+    <mergeCell ref="N84:W84"/>
+    <mergeCell ref="N85:W85"/>
+    <mergeCell ref="N86:W86"/>
+    <mergeCell ref="I89:M89"/>
+    <mergeCell ref="N55:W55"/>
+    <mergeCell ref="N56:W56"/>
+    <mergeCell ref="N57:W57"/>
+    <mergeCell ref="N58:W58"/>
+    <mergeCell ref="N59:W59"/>
+    <mergeCell ref="N60:W60"/>
+    <mergeCell ref="N61:W61"/>
+    <mergeCell ref="N62:W62"/>
+    <mergeCell ref="N63:W63"/>
+    <mergeCell ref="N64:W64"/>
+    <mergeCell ref="N65:W65"/>
+    <mergeCell ref="N66:W66"/>
+    <mergeCell ref="N67:W67"/>
+    <mergeCell ref="N68:W68"/>
+    <mergeCell ref="N69:W69"/>
+    <mergeCell ref="N70:W70"/>
+    <mergeCell ref="N71:W71"/>
+    <mergeCell ref="N72:W72"/>
+    <mergeCell ref="N73:W73"/>
+    <mergeCell ref="N74:W74"/>
+    <mergeCell ref="N75:W75"/>
+    <mergeCell ref="N76:W76"/>
+    <mergeCell ref="N77:W77"/>
+    <mergeCell ref="I80:M80"/>
+    <mergeCell ref="I81:M81"/>
+    <mergeCell ref="I82:M82"/>
+    <mergeCell ref="I83:M83"/>
+    <mergeCell ref="I84:M84"/>
+    <mergeCell ref="I85:M85"/>
+    <mergeCell ref="I86:M86"/>
+    <mergeCell ref="I87:M87"/>
+    <mergeCell ref="I88:M88"/>
+    <mergeCell ref="I71:M71"/>
+    <mergeCell ref="I72:M72"/>
+    <mergeCell ref="I73:M73"/>
+    <mergeCell ref="I74:M74"/>
+    <mergeCell ref="I75:M75"/>
+    <mergeCell ref="I76:M76"/>
+    <mergeCell ref="I77:M77"/>
+    <mergeCell ref="I78:M78"/>
+    <mergeCell ref="I79:M79"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="I55:M55"/>
+    <mergeCell ref="I56:M56"/>
+    <mergeCell ref="I57:M57"/>
+    <mergeCell ref="I58:M58"/>
+    <mergeCell ref="I59:M59"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="I62:M62"/>
+    <mergeCell ref="I63:M63"/>
+    <mergeCell ref="I64:M64"/>
+    <mergeCell ref="I65:M65"/>
+    <mergeCell ref="I66:M66"/>
+    <mergeCell ref="I67:M67"/>
+    <mergeCell ref="I68:M68"/>
+    <mergeCell ref="I69:M69"/>
+    <mergeCell ref="I70:M70"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="N31:W31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="N32:W32"/>
+    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="N22:W22"/>
+    <mergeCell ref="N23:W23"/>
+    <mergeCell ref="N24:W24"/>
+    <mergeCell ref="N25:W25"/>
+    <mergeCell ref="N26:W26"/>
+    <mergeCell ref="N17:W17"/>
+    <mergeCell ref="N18:W18"/>
+    <mergeCell ref="N19:W19"/>
+    <mergeCell ref="N20:W20"/>
+    <mergeCell ref="N21:W21"/>
+    <mergeCell ref="N27:W27"/>
+    <mergeCell ref="N28:W28"/>
+    <mergeCell ref="N29:W29"/>
+    <mergeCell ref="N30:W30"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="N9:W9"/>
+    <mergeCell ref="N10:W10"/>
+    <mergeCell ref="N11:W11"/>
+    <mergeCell ref="N12:W12"/>
+    <mergeCell ref="N13:W13"/>
+    <mergeCell ref="N14:W14"/>
+    <mergeCell ref="N15:W15"/>
+    <mergeCell ref="N16:W16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="N5:W5"/>
+    <mergeCell ref="N6:W6"/>
+    <mergeCell ref="N7:W7"/>
+    <mergeCell ref="N8:W8"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="N1:W1"/>
+    <mergeCell ref="N2:W2"/>
+    <mergeCell ref="N3:W3"/>
+    <mergeCell ref="N4:W4"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="N33:W33"/>
     <mergeCell ref="N34:W34"/>
     <mergeCell ref="N35:W35"/>
@@ -2710,157 +3981,50 @@
     <mergeCell ref="I38:M38"/>
     <mergeCell ref="I39:M39"/>
     <mergeCell ref="I40:M40"/>
-    <mergeCell ref="N5:W5"/>
-    <mergeCell ref="N6:W6"/>
-    <mergeCell ref="N7:W7"/>
-    <mergeCell ref="N8:W8"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="N1:W1"/>
-    <mergeCell ref="N2:W2"/>
-    <mergeCell ref="N3:W3"/>
-    <mergeCell ref="N4:W4"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="N9:W9"/>
-    <mergeCell ref="N10:W10"/>
-    <mergeCell ref="N11:W11"/>
-    <mergeCell ref="N12:W12"/>
-    <mergeCell ref="N13:W13"/>
-    <mergeCell ref="N14:W14"/>
-    <mergeCell ref="N15:W15"/>
-    <mergeCell ref="N16:W16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="N27:W27"/>
-    <mergeCell ref="N28:W28"/>
-    <mergeCell ref="N29:W29"/>
-    <mergeCell ref="N30:W30"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="I27:M27"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="N22:W22"/>
-    <mergeCell ref="N23:W23"/>
-    <mergeCell ref="N24:W24"/>
-    <mergeCell ref="N25:W25"/>
-    <mergeCell ref="N26:W26"/>
-    <mergeCell ref="N17:W17"/>
-    <mergeCell ref="N18:W18"/>
-    <mergeCell ref="N19:W19"/>
-    <mergeCell ref="N20:W20"/>
-    <mergeCell ref="N21:W21"/>
-    <mergeCell ref="N31:W31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="N32:W32"/>
-    <mergeCell ref="I30:M30"/>
-    <mergeCell ref="I31:M31"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="N41:W41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="I44:M44"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="N42:W42"/>
+    <mergeCell ref="N43:W43"/>
+    <mergeCell ref="N44:W44"/>
+    <mergeCell ref="N45:W45"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="I52:M52"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="I54:M54"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="I48:M48"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="N51:W51"/>
+    <mergeCell ref="N52:W52"/>
+    <mergeCell ref="N53:W53"/>
+    <mergeCell ref="N54:W54"/>
+    <mergeCell ref="N46:W46"/>
+    <mergeCell ref="N47:W47"/>
+    <mergeCell ref="N48:W48"/>
+    <mergeCell ref="N49:W49"/>
+    <mergeCell ref="N50:W50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>